--- a/data-raw/timepoints.xlsx
+++ b/data-raw/timepoints.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domeally/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F7ACE2AE-A19B-1A45-B16D-2DBCC9278CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB78E23-0D9F-AF4A-884E-47446A4F6BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15440" activeTab="2"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="minimal_metadata_samples" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12100" uniqueCount="2690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12105" uniqueCount="2690">
   <si>
     <t>sample</t>
   </si>
@@ -8114,7 +8114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -8949,10 +8949,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1030"/>
   <sheetViews>
-    <sheetView topLeftCell="A774" workbookViewId="0">
+    <sheetView topLeftCell="A677" workbookViewId="0">
       <selection activeCell="H511" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
@@ -53466,17 +53466,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1031"/>
+  <autoFilter ref="A1:O1031" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53495,7 +53495,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="str">
-        <f>CONCATENATE(B1,"_",C1)</f>
+        <f t="shared" ref="D1:D32" si="0">CONCATENATE(B1,"_",C1)</f>
         <v>timepoint_project</v>
       </c>
     </row>
@@ -53510,7 +53510,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE(B2,"_",C2)</f>
+        <f t="shared" si="0"/>
         <v>L_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53525,7 +53525,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE(B3,"_",C3)</f>
+        <f t="shared" si="0"/>
         <v>T0_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53540,7 +53540,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE(B4,"_",C4)</f>
+        <f t="shared" si="0"/>
         <v>T1_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53555,7 +53555,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE(B5,"_",C5)</f>
+        <f t="shared" si="0"/>
         <v>T2_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53570,7 +53570,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE(B6,"_",C6)</f>
+        <f t="shared" si="0"/>
         <v>T3_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53585,7 +53585,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE(B7,"_",C7)</f>
+        <f t="shared" si="0"/>
         <v>T4_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53600,7 +53600,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE(B8,"_",C8)</f>
+        <f t="shared" si="0"/>
         <v>T5_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53615,7 +53615,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE(B9,"_",C9)</f>
+        <f t="shared" si="0"/>
         <v>T6_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53630,7 +53630,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE(B10,"_",C10)</f>
+        <f t="shared" si="0"/>
         <v>WK10_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53645,7 +53645,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE(B11,"_",C11)</f>
+        <f t="shared" si="0"/>
         <v>WK14_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53660,7 +53660,7 @@
         <v>23</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE(B12,"_",C12)</f>
+        <f t="shared" si="0"/>
         <v>WK18_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53675,7 +53675,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE(B13,"_",C13)</f>
+        <f t="shared" si="0"/>
         <v>WK20_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53690,7 +53690,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE(B14,"_",C14)</f>
+        <f t="shared" si="0"/>
         <v>WK24_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53705,7 +53705,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE(B15,"_",C15)</f>
+        <f t="shared" si="0"/>
         <v>WK25_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53720,7 +53720,7 @@
         <v>23</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE(B16,"_",C16)</f>
+        <f t="shared" si="0"/>
         <v>WK28_AML.mRNA.2016</v>
       </c>
     </row>
@@ -53735,7 +53735,7 @@
         <v>303</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE(B17,"_",C17)</f>
+        <f t="shared" si="0"/>
         <v>T0_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53750,7 +53750,7 @@
         <v>303</v>
       </c>
       <c r="D18" t="str">
-        <f>CONCATENATE(B18,"_",C18)</f>
+        <f t="shared" si="0"/>
         <v>T1_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53765,7 +53765,7 @@
         <v>303</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE(B19,"_",C19)</f>
+        <f t="shared" si="0"/>
         <v>T10_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53780,7 +53780,7 @@
         <v>303</v>
       </c>
       <c r="D20" t="str">
-        <f>CONCATENATE(B20,"_",C20)</f>
+        <f t="shared" si="0"/>
         <v>T2_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53795,7 +53795,7 @@
         <v>303</v>
       </c>
       <c r="D21" t="str">
-        <f>CONCATENATE(B21,"_",C21)</f>
+        <f t="shared" si="0"/>
         <v>T3_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53810,7 +53810,7 @@
         <v>303</v>
       </c>
       <c r="D22" t="str">
-        <f>CONCATENATE(B22,"_",C22)</f>
+        <f t="shared" si="0"/>
         <v>T4_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53825,7 +53825,7 @@
         <v>303</v>
       </c>
       <c r="D23" t="str">
-        <f>CONCATENATE(B23,"_",C23)</f>
+        <f t="shared" si="0"/>
         <v>T5_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53840,7 +53840,7 @@
         <v>303</v>
       </c>
       <c r="D24" t="str">
-        <f>CONCATENATE(B24,"_",C24)</f>
+        <f t="shared" si="0"/>
         <v>T5p5_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53855,7 +53855,7 @@
         <v>303</v>
       </c>
       <c r="D25" t="str">
-        <f>CONCATENATE(B25,"_",C25)</f>
+        <f t="shared" si="0"/>
         <v>T6_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53870,7 +53870,7 @@
         <v>303</v>
       </c>
       <c r="D26" t="str">
-        <f>CONCATENATE(B26,"_",C26)</f>
+        <f t="shared" si="0"/>
         <v>T6p5_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53885,7 +53885,7 @@
         <v>303</v>
       </c>
       <c r="D27" t="str">
-        <f>CONCATENATE(B27,"_",C27)</f>
+        <f t="shared" si="0"/>
         <v>T7_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53900,7 +53900,7 @@
         <v>303</v>
       </c>
       <c r="D28" t="str">
-        <f>CONCATENATE(B28,"_",C28)</f>
+        <f t="shared" si="0"/>
         <v>T8_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53915,7 +53915,7 @@
         <v>303</v>
       </c>
       <c r="D29" t="str">
-        <f>CONCATENATE(B29,"_",C29)</f>
+        <f t="shared" si="0"/>
         <v>T9_AML.mRNA.2018.all_samples</v>
       </c>
     </row>
@@ -53930,7 +53930,7 @@
         <v>596</v>
       </c>
       <c r="D30" t="str">
-        <f>CONCATENATE(B30,"_",C30)</f>
+        <f t="shared" si="0"/>
         <v>NA_AML.mRNA.2020</v>
       </c>
     </row>
@@ -53945,7 +53945,7 @@
         <v>596</v>
       </c>
       <c r="D31" t="str">
-        <f>CONCATENATE(B31,"_",C31)</f>
+        <f t="shared" si="0"/>
         <v>T0_AML.mRNA.2020</v>
       </c>
     </row>
@@ -53960,7 +53960,7 @@
         <v>596</v>
       </c>
       <c r="D32" t="str">
-        <f>CONCATENATE(B32,"_",C32)</f>
+        <f t="shared" si="0"/>
         <v>T1_AML.mRNA.2020</v>
       </c>
     </row>
@@ -53975,7 +53975,7 @@
         <v>596</v>
       </c>
       <c r="D33" t="str">
-        <f>CONCATENATE(B33,"_",C33)</f>
+        <f t="shared" ref="D33:D64" si="1">CONCATENATE(B33,"_",C33)</f>
         <v>T2_AML.mRNA.2020</v>
       </c>
     </row>
@@ -53990,7 +53990,7 @@
         <v>596</v>
       </c>
       <c r="D34" t="str">
-        <f>CONCATENATE(B34,"_",C34)</f>
+        <f t="shared" si="1"/>
         <v>T3_AML.mRNA.2020</v>
       </c>
     </row>
@@ -54005,7 +54005,7 @@
         <v>596</v>
       </c>
       <c r="D35" t="str">
-        <f>CONCATENATE(B35,"_",C35)</f>
+        <f t="shared" si="1"/>
         <v>T4_AML.mRNA.2020</v>
       </c>
     </row>
@@ -54020,7 +54020,7 @@
         <v>596</v>
       </c>
       <c r="D36" t="str">
-        <f>CONCATENATE(B36,"_",C36)</f>
+        <f t="shared" si="1"/>
         <v>T5_AML.mRNA.2020</v>
       </c>
     </row>
@@ -54035,7 +54035,7 @@
         <v>596</v>
       </c>
       <c r="D37" t="str">
-        <f>CONCATENATE(B37,"_",C37)</f>
+        <f t="shared" si="1"/>
         <v>T6_AML.mRNA.2020</v>
       </c>
     </row>
@@ -54050,7 +54050,7 @@
         <v>596</v>
       </c>
       <c r="D38" t="str">
-        <f>CONCATENATE(B38,"_",C38)</f>
+        <f t="shared" si="1"/>
         <v>T7_AML.mRNA.2020</v>
       </c>
     </row>
@@ -54065,7 +54065,7 @@
         <v>1086</v>
       </c>
       <c r="D39" t="str">
-        <f>CONCATENATE(B39,"_",C39)</f>
+        <f t="shared" si="1"/>
         <v>0_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54080,7 +54080,7 @@
         <v>1086</v>
       </c>
       <c r="D40" t="str">
-        <f>CONCATENATE(B40,"_",C40)</f>
+        <f t="shared" si="1"/>
         <v>2_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54095,7 +54095,7 @@
         <v>1086</v>
       </c>
       <c r="D41" t="str">
-        <f>CONCATENATE(B41,"_",C41)</f>
+        <f t="shared" si="1"/>
         <v>4_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54110,7 +54110,7 @@
         <v>1086</v>
       </c>
       <c r="D42" t="str">
-        <f>CONCATENATE(B42,"_",C42)</f>
+        <f t="shared" si="1"/>
         <v>6_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54125,7 +54125,7 @@
         <v>1086</v>
       </c>
       <c r="D43" t="str">
-        <f>CONCATENATE(B43,"_",C43)</f>
+        <f t="shared" si="1"/>
         <v>8_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54140,7 +54140,7 @@
         <v>1086</v>
       </c>
       <c r="D44" t="str">
-        <f>CONCATENATE(B44,"_",C44)</f>
+        <f t="shared" si="1"/>
         <v>10_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54155,7 +54155,7 @@
         <v>1086</v>
       </c>
       <c r="D45" t="str">
-        <f>CONCATENATE(B45,"_",C45)</f>
+        <f t="shared" si="1"/>
         <v>12_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54170,7 +54170,7 @@
         <v>1086</v>
       </c>
       <c r="D46" t="str">
-        <f>CONCATENATE(B46,"_",C46)</f>
+        <f t="shared" si="1"/>
         <v>14_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54185,7 +54185,7 @@
         <v>1086</v>
       </c>
       <c r="D47" t="str">
-        <f>CONCATENATE(B47,"_",C47)</f>
+        <f t="shared" si="1"/>
         <v>16_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54200,7 +54200,7 @@
         <v>1086</v>
       </c>
       <c r="D48" t="str">
-        <f>CONCATENATE(B48,"_",C48)</f>
+        <f t="shared" si="1"/>
         <v>22_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54215,7 +54215,7 @@
         <v>1086</v>
       </c>
       <c r="D49" t="str">
-        <f>CONCATENATE(B49,"_",C49)</f>
+        <f t="shared" si="1"/>
         <v>26_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54230,7 +54230,7 @@
         <v>1086</v>
       </c>
       <c r="D50" t="str">
-        <f>CONCATENATE(B50,"_",C50)</f>
+        <f t="shared" si="1"/>
         <v>28_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54245,7 +54245,7 @@
         <v>1086</v>
       </c>
       <c r="D51" t="str">
-        <f>CONCATENATE(B51,"_",C51)</f>
+        <f t="shared" si="1"/>
         <v>34_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54260,7 +54260,7 @@
         <v>1086</v>
       </c>
       <c r="D52" t="str">
-        <f>CONCATENATE(B52,"_",C52)</f>
+        <f t="shared" si="1"/>
         <v>END_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54275,7 +54275,7 @@
         <v>1086</v>
       </c>
       <c r="D53" t="str">
-        <f>CONCATENATE(B53,"_",C53)</f>
+        <f t="shared" si="1"/>
         <v>NA_AML.mRNA.2021.RxGroup1</v>
       </c>
     </row>
@@ -54290,7 +54290,7 @@
         <v>1219</v>
       </c>
       <c r="D54" t="str">
-        <f>CONCATENATE(B54,"_",C54)</f>
+        <f t="shared" si="1"/>
         <v>END_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54305,7 +54305,7 @@
         <v>1219</v>
       </c>
       <c r="D55" t="str">
-        <f>CONCATENATE(B55,"_",C55)</f>
+        <f t="shared" si="1"/>
         <v>NA_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54320,7 +54320,7 @@
         <v>1219</v>
       </c>
       <c r="D56" t="str">
-        <f>CONCATENATE(B56,"_",C56)</f>
+        <f t="shared" si="1"/>
         <v>T0_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54335,7 +54335,7 @@
         <v>1219</v>
       </c>
       <c r="D57" t="str">
-        <f>CONCATENATE(B57,"_",C57)</f>
+        <f t="shared" si="1"/>
         <v>T1_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54350,7 +54350,7 @@
         <v>1219</v>
       </c>
       <c r="D58" t="str">
-        <f>CONCATENATE(B58,"_",C58)</f>
+        <f t="shared" si="1"/>
         <v>T2_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54365,7 +54365,7 @@
         <v>1219</v>
       </c>
       <c r="D59" t="str">
-        <f>CONCATENATE(B59,"_",C59)</f>
+        <f t="shared" si="1"/>
         <v>T3_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54380,7 +54380,7 @@
         <v>1219</v>
       </c>
       <c r="D60" t="str">
-        <f>CONCATENATE(B60,"_",C60)</f>
+        <f t="shared" si="1"/>
         <v>T4_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54395,7 +54395,7 @@
         <v>1219</v>
       </c>
       <c r="D61" t="str">
-        <f>CONCATENATE(B61,"_",C61)</f>
+        <f t="shared" si="1"/>
         <v>W0_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54410,7 +54410,7 @@
         <v>1219</v>
       </c>
       <c r="D62" t="str">
-        <f>CONCATENATE(B62,"_",C62)</f>
+        <f t="shared" si="1"/>
         <v>W10_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54425,7 +54425,7 @@
         <v>1219</v>
       </c>
       <c r="D63" t="str">
-        <f>CONCATENATE(B63,"_",C63)</f>
+        <f t="shared" si="1"/>
         <v>W11_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54440,7 +54440,7 @@
         <v>1219</v>
       </c>
       <c r="D64" t="str">
-        <f>CONCATENATE(B64,"_",C64)</f>
+        <f t="shared" si="1"/>
         <v>W12_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54455,7 +54455,7 @@
         <v>1219</v>
       </c>
       <c r="D65" t="str">
-        <f>CONCATENATE(B65,"_",C65)</f>
+        <f t="shared" ref="D65:D96" si="2">CONCATENATE(B65,"_",C65)</f>
         <v>W13_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54470,7 +54470,7 @@
         <v>1219</v>
       </c>
       <c r="D66" t="str">
-        <f>CONCATENATE(B66,"_",C66)</f>
+        <f t="shared" si="2"/>
         <v>W14_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54485,7 +54485,7 @@
         <v>1219</v>
       </c>
       <c r="D67" t="str">
-        <f>CONCATENATE(B67,"_",C67)</f>
+        <f t="shared" si="2"/>
         <v>W15_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54500,7 +54500,7 @@
         <v>1219</v>
       </c>
       <c r="D68" t="str">
-        <f>CONCATENATE(B68,"_",C68)</f>
+        <f t="shared" si="2"/>
         <v>W2_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54515,7 +54515,7 @@
         <v>1219</v>
       </c>
       <c r="D69" t="str">
-        <f>CONCATENATE(B69,"_",C69)</f>
+        <f t="shared" si="2"/>
         <v>W3_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54530,7 +54530,7 @@
         <v>1219</v>
       </c>
       <c r="D70" t="str">
-        <f>CONCATENATE(B70,"_",C70)</f>
+        <f t="shared" si="2"/>
         <v>W35_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54545,7 +54545,7 @@
         <v>1219</v>
       </c>
       <c r="D71" t="str">
-        <f>CONCATENATE(B71,"_",C71)</f>
+        <f t="shared" si="2"/>
         <v>W36_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54560,7 +54560,7 @@
         <v>1219</v>
       </c>
       <c r="D72" t="str">
-        <f>CONCATENATE(B72,"_",C72)</f>
+        <f t="shared" si="2"/>
         <v>W4_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54575,7 +54575,7 @@
         <v>1219</v>
       </c>
       <c r="D73" t="str">
-        <f>CONCATENATE(B73,"_",C73)</f>
+        <f t="shared" si="2"/>
         <v>W40_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54590,7 +54590,7 @@
         <v>1219</v>
       </c>
       <c r="D74" t="str">
-        <f>CONCATENATE(B74,"_",C74)</f>
+        <f t="shared" si="2"/>
         <v>W41_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54605,7 +54605,7 @@
         <v>1219</v>
       </c>
       <c r="D75" t="str">
-        <f>CONCATENATE(B75,"_",C75)</f>
+        <f t="shared" si="2"/>
         <v>W5_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54620,7 +54620,7 @@
         <v>1219</v>
       </c>
       <c r="D76" t="str">
-        <f>CONCATENATE(B76,"_",C76)</f>
+        <f t="shared" si="2"/>
         <v>W6_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54635,7 +54635,7 @@
         <v>1219</v>
       </c>
       <c r="D77" t="str">
-        <f>CONCATENATE(B77,"_",C77)</f>
+        <f t="shared" si="2"/>
         <v>W7_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54650,7 +54650,7 @@
         <v>1219</v>
       </c>
       <c r="D78" t="str">
-        <f>CONCATENATE(B78,"_",C78)</f>
+        <f t="shared" si="2"/>
         <v>W8_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54665,7 +54665,7 @@
         <v>1219</v>
       </c>
       <c r="D79" t="str">
-        <f>CONCATENATE(B79,"_",C79)</f>
+        <f t="shared" si="2"/>
         <v>W9_AML.mRNA.2021.RxGroup2</v>
       </c>
     </row>
@@ -54680,7 +54680,7 @@
         <v>1716</v>
       </c>
       <c r="D80" t="str">
-        <f>CONCATENATE(B80,"_",C80)</f>
+        <f t="shared" si="2"/>
         <v>NA_AML.mRNA.2021.RxGroup2_pt2</v>
       </c>
     </row>
@@ -54695,7 +54695,7 @@
         <v>1716</v>
       </c>
       <c r="D81" t="str">
-        <f>CONCATENATE(B81,"_",C81)</f>
+        <f t="shared" si="2"/>
         <v>W16_AML.mRNA.2021.RxGroup2_pt2</v>
       </c>
     </row>
@@ -54710,7 +54710,7 @@
         <v>1716</v>
       </c>
       <c r="D82" t="str">
-        <f>CONCATENATE(B82,"_",C82)</f>
+        <f t="shared" si="2"/>
         <v>W17_AML.mRNA.2021.RxGroup2_pt2</v>
       </c>
     </row>
@@ -54725,7 +54725,7 @@
         <v>1716</v>
       </c>
       <c r="D83" t="str">
-        <f>CONCATENATE(B83,"_",C83)</f>
+        <f t="shared" si="2"/>
         <v>W18_AML.mRNA.2021.RxGroup2_pt2</v>
       </c>
     </row>
@@ -54740,7 +54740,7 @@
         <v>1716</v>
       </c>
       <c r="D84" t="str">
-        <f>CONCATENATE(B84,"_",C84)</f>
+        <f t="shared" si="2"/>
         <v>W19_AML.mRNA.2021.RxGroup2_pt2</v>
       </c>
     </row>
@@ -54755,7 +54755,7 @@
         <v>1716</v>
       </c>
       <c r="D85" t="str">
-        <f>CONCATENATE(B85,"_",C85)</f>
+        <f t="shared" si="2"/>
         <v>W20_AML.mRNA.2021.RxGroup2_pt2</v>
       </c>
     </row>
@@ -54770,7 +54770,7 @@
         <v>1716</v>
       </c>
       <c r="D86" t="str">
-        <f>CONCATENATE(B86,"_",C86)</f>
+        <f t="shared" si="2"/>
         <v>W48_AML.mRNA.2021.RxGroup2_pt2</v>
       </c>
     </row>
@@ -54785,7 +54785,7 @@
         <v>1744</v>
       </c>
       <c r="D87" t="str">
-        <f>CONCATENATE(B87,"_",C87)</f>
+        <f t="shared" si="2"/>
         <v>END_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54800,7 +54800,7 @@
         <v>1744</v>
       </c>
       <c r="D88" t="str">
-        <f>CONCATENATE(B88,"_",C88)</f>
+        <f t="shared" si="2"/>
         <v>NA_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54815,7 +54815,7 @@
         <v>1744</v>
       </c>
       <c r="D89" t="str">
-        <f>CONCATENATE(B89,"_",C89)</f>
+        <f t="shared" si="2"/>
         <v>T1_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54830,7 +54830,7 @@
         <v>1744</v>
       </c>
       <c r="D90" t="str">
-        <f>CONCATENATE(B90,"_",C90)</f>
+        <f t="shared" si="2"/>
         <v>T2_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54845,7 +54845,7 @@
         <v>1744</v>
       </c>
       <c r="D91" t="str">
-        <f>CONCATENATE(B91,"_",C91)</f>
+        <f t="shared" si="2"/>
         <v>T3_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54860,7 +54860,7 @@
         <v>1744</v>
       </c>
       <c r="D92" t="str">
-        <f>CONCATENATE(B92,"_",C92)</f>
+        <f t="shared" si="2"/>
         <v>T4_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54875,7 +54875,7 @@
         <v>1744</v>
       </c>
       <c r="D93" t="str">
-        <f>CONCATENATE(B93,"_",C93)</f>
+        <f t="shared" si="2"/>
         <v>T5_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54890,7 +54890,7 @@
         <v>1744</v>
       </c>
       <c r="D94" t="str">
-        <f>CONCATENATE(B94,"_",C94)</f>
+        <f t="shared" si="2"/>
         <v>W0_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54905,7 +54905,7 @@
         <v>1744</v>
       </c>
       <c r="D95" t="str">
-        <f>CONCATENATE(B95,"_",C95)</f>
+        <f t="shared" si="2"/>
         <v>W10_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54920,7 +54920,7 @@
         <v>1744</v>
       </c>
       <c r="D96" t="str">
-        <f>CONCATENATE(B96,"_",C96)</f>
+        <f t="shared" si="2"/>
         <v>W11_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54935,7 +54935,7 @@
         <v>1744</v>
       </c>
       <c r="D97" t="str">
-        <f>CONCATENATE(B97,"_",C97)</f>
+        <f t="shared" ref="D97:D130" si="3">CONCATENATE(B97,"_",C97)</f>
         <v>W12_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54950,7 +54950,7 @@
         <v>1744</v>
       </c>
       <c r="D98" t="str">
-        <f>CONCATENATE(B98,"_",C98)</f>
+        <f t="shared" si="3"/>
         <v>W13_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54965,7 +54965,7 @@
         <v>1744</v>
       </c>
       <c r="D99" t="str">
-        <f>CONCATENATE(B99,"_",C99)</f>
+        <f t="shared" si="3"/>
         <v>W2_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54980,7 +54980,7 @@
         <v>1744</v>
       </c>
       <c r="D100" t="str">
-        <f>CONCATENATE(B100,"_",C100)</f>
+        <f t="shared" si="3"/>
         <v>W3_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -54995,7 +54995,7 @@
         <v>1744</v>
       </c>
       <c r="D101" t="str">
-        <f>CONCATENATE(B101,"_",C101)</f>
+        <f t="shared" si="3"/>
         <v>W4_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -55010,7 +55010,7 @@
         <v>1744</v>
       </c>
       <c r="D102" t="str">
-        <f>CONCATENATE(B102,"_",C102)</f>
+        <f t="shared" si="3"/>
         <v>W5_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -55025,7 +55025,7 @@
         <v>1744</v>
       </c>
       <c r="D103" t="str">
-        <f>CONCATENATE(B103,"_",C103)</f>
+        <f t="shared" si="3"/>
         <v>W6_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -55040,7 +55040,7 @@
         <v>1744</v>
       </c>
       <c r="D104" t="str">
-        <f>CONCATENATE(B104,"_",C104)</f>
+        <f t="shared" si="3"/>
         <v>W7_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -55055,7 +55055,7 @@
         <v>1744</v>
       </c>
       <c r="D105" t="str">
-        <f>CONCATENATE(B105,"_",C105)</f>
+        <f t="shared" si="3"/>
         <v>W8_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
@@ -55070,729 +55070,759 @@
         <v>1744</v>
       </c>
       <c r="D106" t="str">
-        <f>CONCATENATE(B106,"_",C106)</f>
+        <f t="shared" si="3"/>
         <v>W9_AML.mRNA.2022.RxGroup3</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>100</v>
-      </c>
-      <c r="B107">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="B107" t="s">
+        <v>96</v>
       </c>
       <c r="C107" t="s">
         <v>1075</v>
       </c>
       <c r="D107" t="str">
-        <f>CONCATENATE(B107,"_",C107)</f>
-        <v>100_AML.mRNA.novaseq_validation.2020</v>
+        <f t="shared" si="3"/>
+        <v>T2_AML.mRNA.novaseq_validation.2020</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>100</v>
-      </c>
-      <c r="B108">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>186</v>
       </c>
       <c r="C108" t="s">
-        <v>2627</v>
+        <v>1075</v>
       </c>
       <c r="D108" t="str">
-        <f>CONCATENATE(B108,"_",C108)</f>
-        <v>100_AML.scRNAseq.2022</v>
+        <f t="shared" ref="D108" si="4">CONCATENATE(B108,"_",C108)</f>
+        <v>T5_AML.mRNA.novaseq_validation.2020</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="C109" t="s">
-        <v>284</v>
+        <v>1075</v>
       </c>
       <c r="D109" t="str">
-        <f>CONCATENATE(B109,"_",C109)</f>
-        <v>WK10_AML.validation.2017</v>
+        <f t="shared" si="3"/>
+        <v>T6_AML.mRNA.novaseq_validation.2020</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>14</v>
-      </c>
-      <c r="B110" t="s">
-        <v>272</v>
+        <v>100</v>
+      </c>
+      <c r="B110">
+        <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>284</v>
+        <v>2627</v>
       </c>
       <c r="D110" t="str">
-        <f>CONCATENATE(B110,"_",C110)</f>
-        <v>WK14_AML.validation.2017</v>
+        <f t="shared" si="3"/>
+        <v>100_AML.scRNAseq.2022</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C111" t="s">
         <v>284</v>
       </c>
       <c r="D111" t="str">
-        <f>CONCATENATE(B111,"_",C111)</f>
-        <v>WK18_AML.validation.2017</v>
+        <f t="shared" si="3"/>
+        <v>WK10_AML.validation.2017</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="C112" t="s">
         <v>284</v>
       </c>
       <c r="D112" t="str">
-        <f>CONCATENATE(B112,"_",C112)</f>
-        <v>WK20_AML.validation.2017</v>
+        <f t="shared" si="3"/>
+        <v>WK14_AML.validation.2017</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C113" t="s">
         <v>284</v>
       </c>
       <c r="D113" t="str">
-        <f>CONCATENATE(B113,"_",C113)</f>
-        <v>WK24_AML.validation.2017</v>
+        <f t="shared" si="3"/>
+        <v>WK18_AML.validation.2017</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B114" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C114" t="s">
         <v>284</v>
       </c>
       <c r="D114" t="str">
-        <f>CONCATENATE(B114,"_",C114)</f>
-        <v>WK25_AML.validation.2017</v>
+        <f t="shared" si="3"/>
+        <v>WK20_AML.validation.2017</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C115" t="s">
         <v>284</v>
       </c>
       <c r="D115" t="str">
-        <f>CONCATENATE(B115,"_",C115)</f>
-        <v>WK28_AML.validation.2017</v>
+        <f t="shared" si="3"/>
+        <v>WK24_AML.validation.2017</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>260</v>
       </c>
       <c r="C116" t="s">
-        <v>1939</v>
+        <v>284</v>
       </c>
       <c r="D116" t="str">
-        <f>CONCATENATE(B116,"_",C116)</f>
-        <v>0_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>WK25_AML.validation.2017</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1</v>
-      </c>
-      <c r="B117">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="B117" t="s">
+        <v>253</v>
       </c>
       <c r="C117" t="s">
-        <v>1939</v>
+        <v>284</v>
       </c>
       <c r="D117" t="str">
-        <f>CONCATENATE(B117,"_",C117)</f>
-        <v>1_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>WK28_AML.validation.2017</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118" t="s">
         <v>1939</v>
       </c>
       <c r="D118" t="str">
-        <f>CONCATENATE(B118,"_",C118)</f>
-        <v>2_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>0_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C119" t="s">
         <v>1939</v>
       </c>
       <c r="D119" t="str">
-        <f>CONCATENATE(B119,"_",C119)</f>
-        <v>3_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>1_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C120" t="s">
         <v>1939</v>
       </c>
       <c r="D120" t="str">
-        <f>CONCATENATE(B120,"_",C120)</f>
-        <v>4_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>2_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C121" t="s">
         <v>1939</v>
       </c>
       <c r="D121" t="str">
-        <f>CONCATENATE(B121,"_",C121)</f>
-        <v>5_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>3_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B122">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
         <v>1939</v>
       </c>
       <c r="D122" t="str">
-        <f>CONCATENATE(B122,"_",C122)</f>
-        <v>6_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>4_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B123">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>1939</v>
       </c>
       <c r="D123" t="str">
-        <f>CONCATENATE(B123,"_",C123)</f>
-        <v>7_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>5_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B124">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>1939</v>
       </c>
       <c r="D124" t="str">
-        <f>CONCATENATE(B124,"_",C124)</f>
-        <v>8_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>6_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B125">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>1939</v>
       </c>
       <c r="D125" t="str">
-        <f>CONCATENATE(B125,"_",C125)</f>
-        <v>9_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>7_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>1939</v>
       </c>
       <c r="D126" t="str">
-        <f>CONCATENATE(B126,"_",C126)</f>
-        <v>10_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>8_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B127">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>1939</v>
       </c>
       <c r="D127" t="str">
-        <f>CONCATENATE(B127,"_",C127)</f>
-        <v>11_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>9_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B128">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
         <v>1939</v>
       </c>
       <c r="D128" t="str">
-        <f>CONCATENATE(B128,"_",C128)</f>
-        <v>12_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>10_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B129">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C129" t="s">
         <v>1939</v>
       </c>
       <c r="D129" t="str">
-        <f>CONCATENATE(B129,"_",C129)</f>
-        <v>13_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>11_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B130">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>1939</v>
       </c>
       <c r="D130" t="str">
-        <f>CONCATENATE(B130,"_",C130)</f>
-        <v>14_CML.mRNA.2021</v>
+        <f t="shared" si="3"/>
+        <v>12_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B131">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C131" t="s">
         <v>1939</v>
       </c>
       <c r="D131" t="str">
-        <f>CONCATENATE(B131,"_",C131)</f>
-        <v>15_CML.mRNA.2021</v>
+        <f t="shared" ref="D131:D162" si="5">CONCATENATE(B131,"_",C131)</f>
+        <v>13_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B132">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C132" t="s">
         <v>1939</v>
       </c>
       <c r="D132" t="str">
-        <f>CONCATENATE(B132,"_",C132)</f>
-        <v>16_CML.mRNA.2021</v>
+        <f t="shared" si="5"/>
+        <v>14_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B133">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C133" t="s">
         <v>1939</v>
       </c>
       <c r="D133" t="str">
-        <f>CONCATENATE(B133,"_",C133)</f>
-        <v>17_CML.mRNA.2021</v>
+        <f t="shared" si="5"/>
+        <v>15_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B134">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C134" t="s">
         <v>1939</v>
       </c>
       <c r="D134" t="str">
-        <f>CONCATENATE(B134,"_",C134)</f>
-        <v>18_CML.mRNA.2021</v>
+        <f t="shared" si="5"/>
+        <v>16_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C135" t="s">
-        <v>2170</v>
+        <v>1939</v>
       </c>
       <c r="D135" t="str">
-        <f>CONCATENATE(B135,"_",C135)</f>
-        <v>0_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>17_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B136">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C136" t="s">
-        <v>2170</v>
+        <v>1939</v>
       </c>
       <c r="D136" t="str">
-        <f>CONCATENATE(B136,"_",C136)</f>
-        <v>1_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>18_CML.mRNA.2021</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C137" t="s">
         <v>2170</v>
       </c>
       <c r="D137" t="str">
-        <f>CONCATENATE(B137,"_",C137)</f>
-        <v>2_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>0_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
         <v>2170</v>
       </c>
       <c r="D138" t="str">
-        <f>CONCATENATE(B138,"_",C138)</f>
-        <v>3_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>1_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C139" t="s">
         <v>2170</v>
       </c>
       <c r="D139" t="str">
-        <f>CONCATENATE(B139,"_",C139)</f>
-        <v>4_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>2_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B140">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C140" t="s">
         <v>2170</v>
       </c>
       <c r="D140" t="str">
-        <f>CONCATENATE(B140,"_",C140)</f>
-        <v>5_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>3_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C141" t="s">
         <v>2170</v>
       </c>
       <c r="D141" t="str">
-        <f>CONCATENATE(B141,"_",C141)</f>
-        <v>6_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>4_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B142">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>2170</v>
       </c>
       <c r="D142" t="str">
-        <f>CONCATENATE(B142,"_",C142)</f>
-        <v>7_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>5_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B143">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>2170</v>
       </c>
       <c r="D143" t="str">
-        <f>CONCATENATE(B143,"_",C143)</f>
-        <v>8_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>6_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B144">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>2170</v>
       </c>
       <c r="D144" t="str">
-        <f>CONCATENATE(B144,"_",C144)</f>
-        <v>9_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>7_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>2170</v>
       </c>
       <c r="D145" t="str">
-        <f>CONCATENATE(B145,"_",C145)</f>
-        <v>10_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>8_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
         <v>2170</v>
       </c>
       <c r="D146" t="str">
-        <f>CONCATENATE(B146,"_",C146)</f>
-        <v>11_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>9_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B147">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C147" t="s">
         <v>2170</v>
       </c>
       <c r="D147" t="str">
-        <f>CONCATENATE(B147,"_",C147)</f>
-        <v>12_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>10_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B148">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C148" t="s">
         <v>2170</v>
       </c>
       <c r="D148" t="str">
-        <f>CONCATENATE(B148,"_",C148)</f>
-        <v>13_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>11_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B149">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
         <v>2170</v>
       </c>
       <c r="D149" t="str">
-        <f>CONCATENATE(B149,"_",C149)</f>
-        <v>14_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>12_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B150">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
         <v>2170</v>
       </c>
       <c r="D150" t="str">
-        <f>CONCATENATE(B150,"_",C150)</f>
-        <v>15_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>13_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B151">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C151" t="s">
         <v>2170</v>
       </c>
       <c r="D151" t="str">
-        <f>CONCATENATE(B151,"_",C151)</f>
-        <v>16_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>14_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B152">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C152" t="s">
         <v>2170</v>
       </c>
       <c r="D152" t="str">
-        <f>CONCATENATE(B152,"_",C152)</f>
-        <v>17_CML.mRNA.2022</v>
+        <f t="shared" si="5"/>
+        <v>15_CML.mRNA.2022</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B153">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C153" t="s">
         <v>2170</v>
       </c>
       <c r="D153" t="str">
-        <f>CONCATENATE(B153,"_",C153)</f>
+        <f t="shared" si="5"/>
+        <v>16_CML.mRNA.2022</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>17</v>
+      </c>
+      <c r="B154">
+        <v>17</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="5"/>
+        <v>17_CML.mRNA.2022</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>18</v>
+      </c>
+      <c r="B155">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="5"/>
         <v>18_CML.mRNA.2022</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
-    <sortCondition ref="C2:C153"/>
-    <sortCondition ref="B2:B153"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
+    <sortCondition ref="C2:C155"/>
+    <sortCondition ref="B2:B155"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
